--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,16 @@
           <t>userdata</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>activitydata</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'id': 'yJmdNqDJ', 'upload_time': '2024-10-16T09:21:30Z', 'polar_user': 'https://www.polaraccesslink.com/v3/users/62136312', 'device': 'Polar Pacer', 'device_id': 'DECADB2B', 'start_time': '2024-10-16T11:13:18', 'start_time_utc_offset': 120, 'duration': 'PT247.280S', 'heart_rate': {'average': 66, 'maximum': 76}, 'sport': 'OTHER', 'has_route': False, 'detailed_sport_info': 'OTHER_INDOOR', 'calories': 9, 'fat_percentage': 80, 'carbohydrate_percentage': 20, 'protein_percentage': 0, 'training_load_pro': {'cardio-load': 0.23727, 'cardio-load-interpretation': 'NOT_AVAILABLE', 'muscle-load': -1.0, 'muscle-load-interpretation': 'NOT_AVAILABLE', 'perceived-load': 0.0, 'perceived-load-interpretation': 'NOT_AVAILABLE', 'user-rpe': 'UNKNOWN'}}, {'id': '026rLL8p', 'upload_time': '2024-10-16T09:33:41Z', 'polar_user': 'https://www.polaraccesslink.com/v3/users/62136312', 'device': 'Polar Pacer', 'device_id': 'DECADB2B', 'start_time': '2024-10-16T11:32:30', 'start_time_utc_offset': 120, 'duration': 'PT30.030S', 'heart_rate': {'average': 61, 'maximum': 63}, 'sport': 'OTHER', 'has_route': False, 'detailed_sport_info': 'OTHER_INDOOR', 'calories': 1, 'fat_percentage': 80, 'carbohydrate_percentage': 20, 'protein_percentage': 0, 'training_load_pro': {'cardio-load': 0.0143825, 'cardio-load-interpretation': 'NOT_AVAILABLE', 'muscle-load': -1.0, 'muscle-load-interpretation': 'NOT_AVAILABLE', 'perceived-load': 0.0, 'perceived-load-interpretation': 'NOT_AVAILABLE', 'user-rpe': 'UNKNOWN'}}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,31 +478,33 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'polar-user-id': 62136356, 'member-id': '5d737bbf05cd4f528f6c6420445b66ac', 'registration-date': '2024-10-16T09:00:34.000Z', 'first-name': 'Bálint András', 'last-name': 'Lassú', 'birthdate': '1997-10-10', 'gender': 'MALE', 'weight': 66.0, 'height': 180.0, 'extra-info': []}</t>
-        </is>
-      </c>
+          <t>{'polar-user-id': 62136312, 'member-id': '9544c60085e0456d8d170ddb38457baf', 'registration-date': '2024-10-16T08:46:32.000Z', 'first-name': 'Bence', 'last-name': 'Fogel', 'birthdate': '2000-11-30', 'gender': 'MALE', 'weight': 80.0, 'height': 186.0, 'extra-info': []}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{'id': 'yJmdNqDJ', 'upload_time': '2024-10-16T09:21:30Z', 'polar_user': 'https://www.polaraccesslink.com/v3/users/62136312', 'device': 'Polar Pacer', 'device_id': 'DECADB2B', 'start_time': '2024-10-16T11:13:18', 'start_time_utc_offset': 120, 'duration': 'PT247.280S', 'heart_rate': {'average': 66, 'maximum': 76}, 'sport': 'OTHER', 'has_route': False, 'detailed_sport_info': 'OTHER_INDOOR', 'calories': 9, 'fat_percentage': 80, 'carbohydrate_percentage': 20, 'protein_percentage': 0, 'training_load_pro': {'cardio-load': 0.23727, 'cardio-load-interpretation': 'NOT_AVAILABLE', 'muscle-load': -1.0, 'muscle-load-interpretation': 'NOT_AVAILABLE', 'perceived-load': 0.0, 'perceived-load-interpretation': 'NOT_AVAILABLE', 'user-rpe': 'UNKNOWN'}}, {'id': '026rLL8p', 'upload_time': '2024-10-16T09:33:41Z', 'polar_user': 'https://www.polaraccesslink.com/v3/users/62136312', 'device': 'Polar Pacer', 'device_id': 'DECADB2B', 'start_time': '2024-10-16T11:32:30', 'start_time_utc_offset': 120, 'duration': 'PT30.030S', 'heart_rate': {'average': 61, 'maximum': 63}, 'sport': 'OTHER', 'has_route': False, 'detailed_sport_info': 'OTHER_INDOOR', 'calories': 1, 'fat_percentage': 80, 'carbohydrate_percentage': 20, 'protein_percentage': 0, 'training_load_pro': {'cardio-load': 0.0143825, 'cardio-load-interpretation': 'NOT_AVAILABLE', 'muscle-load': -1.0, 'muscle-load-interpretation': 'NOT_AVAILABLE', 'perceived-load': 0.0, 'perceived-load-interpretation': 'NOT_AVAILABLE', 'user-rpe': 'UNKNOWN'}}]</t>
+          <t>[{'id': 'Png4aYmO', 'upload_time': '2024-10-17T10:18:17Z', 'polar_user': 'https://www.polaraccesslink.com/v3/users/62136356', 'device': 'Polar Pacer', 'device_id': 'DEC9982B', 'start_time': '2024-10-17T11:58:47', 'start_time_utc_offset': 120, 'duration': 'PT747.045S', 'heart_rate': {'average': 100, 'maximum': 125}, 'sport': 'OTHER', 'has_route': False, 'detailed_sport_info': 'OTHER_INDOOR', 'calories': 62, 'fat_percentage': 69, 'carbohydrate_percentage': 31, 'protein_percentage': 0, 'training_load_pro': {'cardio-load': 4.82805, 'cardio-load-interpretation': 'NOT_AVAILABLE', 'muscle-load': -1.0, 'muscle-load-interpretation': 'NOT_AVAILABLE', 'perceived-load': 0.0, 'perceived-load-interpretation': 'NOT_AVAILABLE', 'user-rpe': 'UNKNOWN'}}]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'nights': []}</t>
+          <t>{'nights': [{'polar_user': 'https://polaraccesslink.com/v3/users/62136356', 'date': '2024-10-17', 'sleep_start_time': '2024-10-17T00:08:05.567+02:00', 'sleep_end_time': '2024-10-17T07:20:05.567+02:00', 'device_id': 'DEC9982B', 'continuity': 2.8, 'continuity_class': 2, 'light_sleep': 14880, 'deep_sleep': 3600, 'rem_sleep': 5430, 'unrecognized_sleep_stage': 0, 'sleep_score': 72, 'total_interruption_duration': 2010, 'sleep_charge': -1, 'sleep_rating': 0, 'short_interruption_duration': 1230, 'long_interruption_duration': 780, 'sleep_goal': 28800, 'group_duration_score': 72.0, 'group_solidity_score': 62.8786, 'group_regeneration_score': 83.4226, 'sleep_cycles': 5, 'hypnogram': {'00:08': 3, '00:09': 4, '00:33': 3, '00:39': 1, '00:48': 0, '00:49': 3, '00:50': 1, '01:06': 3, '01:11': 3, '01:28': 0, '01:29': 3, '01:34': 4, '01:36': 3, '01:44': 4, '01:45': 3, '01:51': 0, '01:52': 3, '02:05': 1, '02:06': 3, '02:10': 1, '02:15': 3, '02:16': 1, '02:18': 3, '02:19': 0, '02:20': 3, '02:22': 3, '02:24': 1, '02:26': 3, '03:00': 0, '03:01': 3, '03:03': 0, '03:04': 3, '03:14': 0, '03:15': 3, '03:44': 1, '03:46': 0, '03:47': 3, '03:48': 1, '03:53': 1, '03:57': 0, '03:59': 1, '04:01': 0, '04:02': 1, '04:04': 0, '04:09': 3, '04:22': 4, '04:43': 0, '04:44': 4, '04:47': 3, '05:05': 0, '05:06': 3, '05:07': 0, '05:08': 3, '05:15': 1, '05:21': 0, '05:22': 1, '05:29': 0, '05:30': 1, '05:31': 0, '05:32': 1, '05:44': 3, '05:57': 4, '05:58': 4, '06:04': 0, '06:05': 4, '06:08': 3, '06:09': 3, '06:27': 3, '06:30': 0, '06:31': 3, '06:40': 0, '06:41': 3, '06:49': 0, '06:54': 3, '07:01': 1, '07:05': 1, '07:18': 0, '07:19': 1, '07:20': 0}, 'heart_rate_samples': {'00:09': 48, '00:14': 49, '00:19': 49, '00:24': 49, '00:29': 48, '00:34': 49, '00:39': 49, '00:44': 52, '00:49': 54, '00:54': 49, '00:59': 49, '01:04': 48, '01:09': 47, '01:14': 48, '01:19': 47, '01:24': 47, '01:29': 50, '01:34': 46, '01:39': 46, '01:44': 46, '01:49': 46, '01:54': 47, '01:59': 46, '02:04': 46, '02:09': 46, '02:14': 50, '02:19': 47, '02:24': 48, '02:29': 47, '02:34': 47, '02:39': 47, '02:44': 47, '02:49': 47, '02:54': 47, '02:59': 48, '03:04': 51, '03:09': 47, '03:14': 47, '03:19': 47, '03:24': 47, '03:29': 48, '03:34': 55, '03:39': 50, '03:44': 50, '03:49': 48, '03:54': 49, '03:59': 55, '04:04': 62, '04:09': 60, '04:14': 47, '04:19': 46, '04:24': 46, '04:29': 46, '04:34': 47, '04:39': 46, '04:44': 47, '04:49': 47, '04:54': 47, '04:59': 47, '05:04': 48, '05:09': 48, '05:14': 47, '05:19': 52, '05:24': 50, '05:29': 53, '05:34': 57, '05:40': 55, '05:45': 48, '05:50': 47, '05:55': 48, '06:00': 48, '06:05': 48, '06:10': 48, '06:15': 48, '06:20': 48, '06:25': 54, '06:30': 51, '06:35': 50, '06:40': 53, '06:45': 50, '06:50': 51, '06:55': 52, '07:00': 49, '07:05': 48, '07:10': 48, '07:15': 49}}]}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'recharges': []}</t>
+          <t>{'recharges': [{'polar_user': 'https://polaraccesslink.com/v3/users/62136356', 'date': '2024-10-17', 'heart_rate_avg': 48, 'beat_to_beat_avg': 1240, 'heart_rate_variability_avg': 72, 'breathing_rate_avg': 12.5, 'hrv_samples': {'00:10': 73, '00:15': 71, '00:20': 76, '00:25': 75, '00:30': 89, '00:35': 71, '00:40': 44, '00:45': 33, '00:50': 60, '00:55': 45, '01:00': 54, '01:05': 53, '01:10': 80, '01:15': 76, '01:20': 64, '01:25': 70, '01:30': 79, '01:35': 78, '01:40': 70, '01:45': 73, '01:50': 77, '01:55': 81, '02:00': 84, '02:05': 84, '02:10': 53, '02:15': 79, '02:20': 91, '02:25': 71, '02:30': 70, '02:35': 73, '02:40': 82, '02:45': 72, '02:50': 80, '02:55': 89, '03:00': 85, '03:05': 54, '03:10': 60, '03:15': 71, '03:20': 64, '03:25': 69, '03:30': 62, '03:35': 80, '03:40': 89, '03:45': 74, '03:50': 80, '03:55': 67, '04:00': 70, '04:05': 121, '04:10': 69, '04:15': 64, '04:20': 71, '04:25': 82, '04:30': 64, '04:35': 68, '04:40': 71, '04:45': 61, '04:50': 59, '04:55': 62, '05:00': 60, '05:05': 77, '05:11': 81, '05:16': 55, '05:21': 72, '05:26': 67, '05:31': 39, '05:41': 90, '05:46': 59, '05:51': 59, '05:56': 57, '06:01': 56, '06:06': 80, '06:11': 70, '06:16': 67, '06:21': 51, '06:26': 60, '06:31': 65, '06:36': 75, '06:41': 66, '06:46': 52, '06:51': 63, '06:56': 49, '07:01': 55, '07:06': 35, '07:11': 39, '07:16': 58}, 'breathing_samples': {'00:08': 12.6, '00:13': 12.7, '00:18': 12.5, '00:23': 12.5, '00:28': 12.5, '00:33': 12.4, '00:38': 13.9, '00:43': 14.0, '00:48': 13.0, '00:53': 12.7, '00:58': 12.9, '01:03': 12.9, '01:08': 12.8, '01:13': 12.5, '01:18': 12.8, '01:23': 12.7, '01:28': 11.5, '01:33': 12.4, '01:38': 12.5, '01:43': 12.5, '01:48': 12.3, '01:53': 11.4, '01:58': 11.6, '02:03': 12.1, '02:08': 12.4, '02:13': 14.1, '02:18': 12.6, '02:23': 12.5, '02:28': 12.5, '02:33': 12.7, '02:38': 12.6, '02:43': 12.7, '02:48': 13.1, '02:53': 12.5, '02:58': 13.2, '03:03': 11.2, '03:08': 11.5, '03:13': 11.9, '03:18': 12.2, '03:23': 12.2, '03:28': 12.8, '03:33': 14.3, '03:38': 14.5, '03:43': 14.5, '03:48': 13.4, '03:53': 12.4, '03:58': 11.9, '04:03': 12.1, '04:08': 12.7, '04:13': 13.0, '04:18': 11.9, '04:23': 12.0, '04:28': 12.1, '04:33': 12.5, '04:38': 12.1, '04:43': 12.4, '04:48': 12.3, '04:53': 12.1, '04:58': 12.3, '05:03': 12.6, '05:08': 12.2, '05:13': 13.9, '05:18': 15.0, '05:23': 13.4, '05:28': 12.6, '05:33': 8.6, '05:38': 9.7, '05:43': 12.0, '05:48': 11.8, '05:53': 12.2, '05:58': 12.2, '06:03': 11.2, '06:08': 11.7, '06:13': 12.7, '06:18': 12.8, '06:23': 14.9, '06:28': 11.8, '06:33': 12.9, '06:38': 12.8, '06:43': 12.8, '06:48': 13.4, '06:53': 11.7, '06:58': 12.8, '07:03': 13.7, '07:08': 13.0, '07:13': 13.9, '07:18': 13.0}}]}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'polar-user-id': 62136312, 'member-id': '9544c60085e0456d8d170ddb38457baf', 'registration-date': '2024-10-16T08:46:32.000Z', 'first-name': 'Bence', 'last-name': 'Fogel', 'birthdate': '2000-11-30', 'gender': 'MALE', 'weight': 80.0, 'height': 186.0, 'extra-info': []}</t>
-        </is>
-      </c>
+          <t>{'polar-user-id': 62136356, 'member-id': '5d737bbf05cd4f528f6c6420445b66ac', 'registration-date': '2024-10-16T09:00:34.000Z', 'first-name': 'Bálint András', 'last-name': 'Lassú', 'birthdate': '1997-10-10', 'gender': 'MALE', 'weight': 66.0, 'height': 180.0, 'extra-info': []}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
